--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Plant</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Li-ion</t>
+  </si>
+  <si>
+    <t>base_level</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +424,12 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -466,7 +475,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent 1 17" xfId="1"/>
@@ -842,7 +852,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -890,9 +900,11 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -908,10 +920,9 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -922,8 +933,8 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>1100</v>
+      <c r="C3" s="5">
+        <v>800</v>
       </c>
       <c r="D3">
         <v>26</v>
@@ -937,8 +948,8 @@
       <c r="G3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K3">
-        <v>25</v>
+      <c r="L3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -963,8 +974,8 @@
       <c r="G4">
         <v>0.45</v>
       </c>
-      <c r="K4">
-        <v>25</v>
+      <c r="L4">
+        <v>30</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -996,6 +1007,9 @@
         <v>0.1</v>
       </c>
       <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
         <v>40</v>
       </c>
       <c r="M5" s="2"/>
@@ -1021,7 +1035,7 @@
       <c r="G6">
         <v>0.85</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>50</v>
       </c>
       <c r="M6" s="2"/>
@@ -1047,7 +1061,7 @@
       <c r="G7">
         <v>0.85</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>50</v>
       </c>
       <c r="M7" s="2"/>
@@ -1079,7 +1093,7 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>50</v>
       </c>
       <c r="M8" s="2"/>
@@ -1094,13 +1108,13 @@
         <v>62</v>
       </c>
       <c r="C9" s="2">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="D9" s="2">
-        <v>0.54</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G9" s="4">
         <v>0.95</v>
@@ -1111,7 +1125,7 @@
       <c r="I9" s="2">
         <v>0.995</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>10</v>
       </c>
       <c r="M9" s="2"/>
@@ -1126,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>980</v>
+        <v>1100</v>
       </c>
       <c r="D10">
         <v>11.6</v>
@@ -1134,8 +1148,8 @@
       <c r="E10">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K10">
-        <v>30</v>
+      <c r="L10">
+        <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1149,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>1810</v>
+        <v>2200</v>
       </c>
       <c r="D11">
         <v>33.200000000000003</v>
@@ -1157,8 +1171,8 @@
       <c r="E11">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K11">
-        <v>30</v>
+      <c r="L11">
+        <v>25</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1171,17 +1185,17 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12">
-        <v>2263</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D12" s="5">
         <v>41.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K12">
-        <v>30</v>
+      <c r="L12">
+        <v>25</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1195,7 +1209,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>6.6</v>
@@ -1203,8 +1217,8 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>40</v>
+      <c r="L13">
+        <v>25</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1218,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>490</v>
+        <v>800</v>
       </c>
       <c r="D14">
         <v>7.8</v>
@@ -1226,8 +1240,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>40</v>
+      <c r="L14">
+        <v>25</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1252,7 +1266,7 @@
       <c r="G15">
         <v>0.96</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>40</v>
       </c>
       <c r="M15" s="2"/>
@@ -1278,7 +1292,7 @@
       <c r="G16">
         <v>0.96</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>40</v>
       </c>
       <c r="M16" s="2"/>
@@ -1304,7 +1318,7 @@
       <c r="G17">
         <v>0.97499999999999998</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>40</v>
       </c>
       <c r="M17" s="2"/>
@@ -1330,7 +1344,7 @@
       <c r="G18">
         <v>0.97499999999999998</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>40</v>
       </c>
       <c r="M18" s="2"/>
@@ -1356,7 +1370,7 @@
       <c r="G19">
         <v>0.97499999999999998</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>40</v>
       </c>
       <c r="M19" s="2"/>
@@ -1385,8 +1399,8 @@
       <c r="G20">
         <v>0.3</v>
       </c>
-      <c r="K20">
-        <v>25</v>
+      <c r="L20">
+        <v>30</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1414,8 +1428,8 @@
       <c r="G21">
         <v>0.25</v>
       </c>
-      <c r="K21">
-        <v>25</v>
+      <c r="L21">
+        <v>30</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>

--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>

--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1076,13 +1076,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>4000</v>
+        <v>2880</v>
       </c>
       <c r="D8" s="2">
-        <v>10.5</v>
+        <v>14.3</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="G8" s="4">
         <v>0.9</v>

--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -367,6 +367,13 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -475,7 +482,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,6 +491,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent 1 17" xfId="1"/>
@@ -852,7 +861,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1091,7 @@
         <v>14.3</v>
       </c>
       <c r="E8" s="2">
-        <v>2.5000000000000002E-6</v>
+        <v>2.2500000000000001E-6</v>
       </c>
       <c r="G8" s="4">
         <v>0.9</v>
@@ -1114,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>2.7E-4</v>
       </c>
       <c r="G9" s="4">
         <v>0.95</v>
@@ -1162,8 +1171,8 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>2200</v>
+      <c r="C11" s="6">
+        <v>2000</v>
       </c>
       <c r="D11">
         <v>33.200000000000003</v>
@@ -1212,10 +1221,10 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>6.6</v>
-      </c>
-      <c r="E13" s="3">
         <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.8E-3</v>
       </c>
       <c r="L13">
         <v>25</v>
@@ -1231,14 +1240,14 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14">
-        <v>800</v>
+      <c r="C14" s="6">
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>7.8</v>
-      </c>
-      <c r="E14" s="3">
         <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.8E-3</v>
       </c>
       <c r="L14">
         <v>25</v>

--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -15,7 +15,7 @@
     <sheet name="values" sheetId="1" r:id="rId1"/>
     <sheet name="units" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>

--- a/src/parameters/tech_info.xlsx
+++ b/src/parameters/tech_info.xlsx
@@ -861,14 +861,14 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
     <col min="2" max="2" width="14.0546875" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
